--- a/北三基点.xlsx
+++ b/北三基点.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16752" uniqueCount="6852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18444" uniqueCount="7433">
   <si>
     <t>dInstal</t>
   </si>
@@ -20568,6 +20568,1749 @@
   </si>
   <si>
     <t>2023-06-30 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:02</t>
+  </si>
+  <si>
+    <t>17.61</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:03</t>
+  </si>
+  <si>
+    <t>19.16000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:03</t>
+  </si>
+  <si>
+    <t>35.64999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:03</t>
+  </si>
+  <si>
+    <t>34.72000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:03</t>
+  </si>
+  <si>
+    <t>37.67</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:03</t>
+  </si>
+  <si>
+    <t>32.209999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:03</t>
+  </si>
+  <si>
+    <t>35.88</t>
+  </si>
+  <si>
+    <t>20.35000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:03</t>
+  </si>
+  <si>
+    <t>19.60000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:03</t>
+  </si>
+  <si>
+    <t>18.690000000000012</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:04</t>
+  </si>
+  <si>
+    <t>19.510000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:02</t>
+  </si>
+  <si>
+    <t>21.309999999999988</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:02</t>
+  </si>
+  <si>
+    <t>34.92999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:03</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:03</t>
+  </si>
+  <si>
+    <t>18.440000000000012</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:03</t>
+  </si>
+  <si>
+    <t>19.239999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:02</t>
+  </si>
+  <si>
+    <t>20.11999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:01:09</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:03</t>
+  </si>
+  <si>
+    <t>40.63</t>
+  </si>
+  <si>
+    <t>34.64</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:03</t>
+  </si>
+  <si>
+    <t>41.13</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:02</t>
+  </si>
+  <si>
+    <t>41.69</t>
+  </si>
+  <si>
+    <t>34.42</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:04</t>
+  </si>
+  <si>
+    <t>18.280000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:02:22</t>
+  </si>
+  <si>
+    <t>34.67</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:03</t>
+  </si>
+  <si>
+    <t>19.549999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 06:00:30</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:03</t>
+  </si>
+  <si>
+    <t>18.13000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 16:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:02</t>
+  </si>
+  <si>
+    <t>19.08</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:04</t>
+  </si>
+  <si>
+    <t>19.530000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:03</t>
+  </si>
+  <si>
+    <t>36.769999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:02</t>
+  </si>
+  <si>
+    <t>38.33999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:03</t>
+  </si>
+  <si>
+    <t>35.41000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:02</t>
+  </si>
+  <si>
+    <t>37.42</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:32</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:04</t>
+  </si>
+  <si>
+    <t>35.55</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:04</t>
+  </si>
+  <si>
+    <t>35.16000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-06 17:00:38</t>
+  </si>
+  <si>
+    <t>35.290000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:03</t>
+  </si>
+  <si>
+    <t>19.33</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:04</t>
+  </si>
+  <si>
+    <t>20.86999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:03</t>
+  </si>
+  <si>
+    <t>39.25</t>
+  </si>
+  <si>
+    <t>39.13000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:03</t>
+  </si>
+  <si>
+    <t>41.38</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 11:00:05</t>
+  </si>
+  <si>
+    <t>33.61999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:03</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>36.000000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 11:00:02</t>
+  </si>
+  <si>
+    <t>38.82000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-10 14:00:04</t>
+  </si>
+  <si>
+    <t>23.459999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-10 17:00:34</t>
+  </si>
+  <si>
+    <t>2023-07-10 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-11 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 08:00:05</t>
+  </si>
+  <si>
+    <t>20.17</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:04</t>
+  </si>
+  <si>
+    <t>39.13</t>
+  </si>
+  <si>
+    <t>40.44000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:04</t>
+  </si>
+  <si>
+    <t>36.72000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:35</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 22:00:04</t>
+  </si>
+  <si>
+    <t>19.83</t>
+  </si>
+  <si>
+    <t>2023-07-12 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:04</t>
+  </si>
+  <si>
+    <t>23.010000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:03</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>37.32000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:04</t>
+  </si>
+  <si>
+    <t>41.50</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:04</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:02</t>
+  </si>
+  <si>
+    <t>19.679999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:04</t>
+  </si>
+  <si>
+    <t>22.250000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:03</t>
+  </si>
+  <si>
+    <t>33.55</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:03</t>
+  </si>
+  <si>
+    <t>20.10000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:02</t>
+  </si>
+  <si>
+    <t>29.14</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:02</t>
+  </si>
+  <si>
+    <t>43.81</t>
+  </si>
+  <si>
+    <t>43.58</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:16</t>
+  </si>
+  <si>
+    <t>20.570000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:33</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:05</t>
+  </si>
+  <si>
+    <t>19.709999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:04</t>
+  </si>
+  <si>
+    <t>35.72000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:03</t>
+  </si>
+  <si>
+    <t>45.31</t>
+  </si>
+  <si>
+    <t>38.35000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:05</t>
+  </si>
+  <si>
+    <t>44.06</t>
+  </si>
+  <si>
+    <t>31.260000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:04</t>
+  </si>
+  <si>
+    <t>18.58</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:04</t>
+  </si>
+  <si>
+    <t>40.97000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-16 16:00:04</t>
+  </si>
+  <si>
+    <t>15.209999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:04</t>
+  </si>
+  <si>
+    <t>18.10000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:04</t>
+  </si>
+  <si>
+    <t>29.250000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:03</t>
+  </si>
+  <si>
+    <t>32.94000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:03</t>
+  </si>
+  <si>
+    <t>31.709999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:04</t>
+  </si>
+  <si>
+    <t>25.799999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:03</t>
+  </si>
+  <si>
+    <t>21.299999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:03</t>
+  </si>
+  <si>
+    <t>32.89</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:04</t>
+  </si>
+  <si>
+    <t>39.66000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:03</t>
+  </si>
+  <si>
+    <t>39.88000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:02</t>
+  </si>
+  <si>
+    <t>41.39</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:02</t>
+  </si>
+  <si>
+    <t>38.38</t>
+  </si>
+  <si>
+    <t>26.549999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:04</t>
+  </si>
+  <si>
+    <t>18.000000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:04</t>
+  </si>
+  <si>
+    <t>20.92</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:04</t>
+  </si>
+  <si>
+    <t>33.42</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:04</t>
+  </si>
+  <si>
+    <t>24.209999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:04</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:03</t>
+  </si>
+  <si>
+    <t>33.36</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:04</t>
+  </si>
+  <si>
+    <t>26.750000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:04</t>
+  </si>
+  <si>
+    <t>30.42</t>
+  </si>
+  <si>
+    <t>2023-07-21 09:00:04</t>
+  </si>
+  <si>
+    <t>35.36</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:03</t>
+  </si>
+  <si>
+    <t>32.60000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:03</t>
+  </si>
+  <si>
+    <t>34.95</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:04</t>
+  </si>
+  <si>
+    <t>41.06</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:03</t>
+  </si>
+  <si>
+    <t>20.64</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:03</t>
+  </si>
+  <si>
+    <t>32.86</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:04</t>
+  </si>
+  <si>
+    <t>34.63000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:03</t>
+  </si>
+  <si>
+    <t>18.450000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-23 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:05</t>
+  </si>
+  <si>
+    <t>33.08</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:03</t>
+  </si>
+  <si>
+    <t>25.530000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:04</t>
+  </si>
+  <si>
+    <t>25.450000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:02</t>
+  </si>
+  <si>
+    <t>31.269999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:03</t>
+  </si>
+  <si>
+    <t>38.56</t>
+  </si>
+  <si>
+    <t>35.000000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:05</t>
+  </si>
+  <si>
+    <t>33.750000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:04</t>
+  </si>
+  <si>
+    <t>32.769999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:05</t>
+  </si>
+  <si>
+    <t>18.980000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-25 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 14:00:03</t>
+  </si>
+  <si>
+    <t>42.19000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-25 17:00:02</t>
+  </si>
+  <si>
+    <t>22.769999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-25 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-26 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:03</t>
+  </si>
+  <si>
+    <t>20.709999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:04</t>
+  </si>
+  <si>
+    <t>38.97000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:03</t>
+  </si>
+  <si>
+    <t>39.760000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 22:00:04</t>
+  </si>
+  <si>
+    <t>19.019999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:02</t>
+  </si>
+  <si>
+    <t>27.239999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:03</t>
+  </si>
+  <si>
+    <t>29.39</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:03</t>
+  </si>
+  <si>
+    <t>28.489999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:02</t>
+  </si>
+  <si>
+    <t>28.040000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:04</t>
+  </si>
+  <si>
+    <t>29.040000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:04</t>
+  </si>
+  <si>
+    <t>29.780000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:03</t>
+  </si>
+  <si>
+    <t>31.64999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-29 08:00:04</t>
+  </si>
+  <si>
+    <t>32.97000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:03</t>
+  </si>
+  <si>
+    <t>30.500000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-30 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:03</t>
+  </si>
+  <si>
+    <t>29.61999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:03</t>
+  </si>
+  <si>
+    <t>35.47000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:04</t>
+  </si>
+  <si>
+    <t>34.290000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:34</t>
+  </si>
+  <si>
+    <t>36.260000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:04</t>
+  </si>
+  <si>
+    <t>31.35000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:03</t>
+  </si>
+  <si>
+    <t>21.64</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 07:00:03</t>
+  </si>
+  <si>
+    <t>25.64999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-31 09:00:05</t>
+  </si>
+  <si>
+    <t>36.239999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-31 11:00:04</t>
+  </si>
+  <si>
+    <t>33.000000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-31 14:00:02</t>
+  </si>
+  <si>
+    <t>43.19</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 09:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:03</t>
+  </si>
+  <si>
+    <t>35.19000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:02</t>
+  </si>
+  <si>
+    <t>42.269999999999996</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:04</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>22.08</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:03</t>
+  </si>
+  <si>
+    <t>34.36</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:03</t>
+  </si>
+  <si>
+    <t>22.91000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 11:00:04</t>
+  </si>
+  <si>
+    <t>36.94000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-04 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 16:00:03</t>
+  </si>
+  <si>
+    <t>33.010000000000005</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 08:00:02</t>
+  </si>
+  <si>
+    <t>19.38000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-05 10:00:03</t>
+  </si>
+  <si>
+    <t>37.280000000000015</t>
+  </si>
+  <si>
+    <t>2023-08-05 13:00:05</t>
+  </si>
+  <si>
+    <t>40.88</t>
+  </si>
+  <si>
+    <t>40.39999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:00:03</t>
+  </si>
+  <si>
+    <t>44.63</t>
+  </si>
+  <si>
+    <t>36.709999999999994</t>
+  </si>
+  <si>
+    <t>2023-08-05 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-06 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:03</t>
+  </si>
+  <si>
+    <t>38.83999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:04</t>
+  </si>
+  <si>
+    <t>21.739999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:04</t>
+  </si>
+  <si>
+    <t>19.11999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:03</t>
+  </si>
+  <si>
+    <t>36.63</t>
+  </si>
+  <si>
+    <t>22.36999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:04</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:03</t>
+  </si>
+  <si>
+    <t>22.530000000000015</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 14:00:04</t>
+  </si>
+  <si>
+    <t>37.86999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-08 17:00:03</t>
+  </si>
+  <si>
+    <t>31.39999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-08 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 23:00:03</t>
   </si>
 </sst>
 </file>
@@ -20612,7 +22355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4188"/>
+  <dimension ref="A1:D4611"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -79250,6 +80993,5928 @@
         <v>3119</v>
       </c>
     </row>
+    <row r="4189">
+      <c r="A4189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>6852</v>
+      </c>
+      <c r="C4189" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D4189" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>6853</v>
+      </c>
+      <c r="C4190" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4190" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>6854</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>6856</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>6857</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>735</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>6858</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>6859</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>6860</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>6861</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>6863</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>6865</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>6866</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>6867</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>6869</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>6871</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>6872</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>6874</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>6782</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>6875</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>6876</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>6878</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>6879</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>6880</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>6881</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>794</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>6882</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>6883</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>6884</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>6885</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>6887</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>6888</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>6891</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>6893</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>6894</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>6896</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>6898</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>6899</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>6900</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>6901</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>6903</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>6905</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>6906</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>6907</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>6909</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>6910</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>6911</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>4861</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>6913</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>639</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>6915</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>6778</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>6917</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>6918</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>6919</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>6921</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>6922</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>6923</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>6924</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>6927</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>6928</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>6929</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>6931</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>6932</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>6933</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>6934</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>6936</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>6937</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>6938</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>6939</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>6940</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>6919</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>6942</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>6945</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>6946</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>6947</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>6948</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>6950</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>6951</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>6952</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>6953</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>6955</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>6957</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>6960</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>6961</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>6962</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>6963</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>5457</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>6966</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>702</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>6968</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>6969</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>6971</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>6972</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>6973</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>4817</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>6974</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>6976</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>6978</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>6980</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>6982</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>6986</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>6987</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>6919</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>6988</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>6989</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>6919</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>6991</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>6993</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>6994</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>6996</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>6997</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>6998</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>7000</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>7001</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>7003</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>7006</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>7011</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>7012</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>7015</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>7016</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>7017</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>7018</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>7019</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>7020</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>6778</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>7021</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>7023</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>7024</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>7025</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>7026</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>7027</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>7028</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>7030</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>6998</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>7032</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>614</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>7033</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>7034</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>7036</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>5457</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>7037</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>7039</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>7040</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>7042</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>624</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>7044</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>7045</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>7048</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>7050</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>7051</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>6793</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>7052</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>7053</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>7054</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>7055</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>7057</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>7058</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>7059</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>7060</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>7061</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>7062</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>7065</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>7066</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>7067</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>7069</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>6243</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>7071</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>6246</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>7072</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>607</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>7074</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>7077</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>7078</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>7080</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>607</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>7082</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>7083</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>6240</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>7087</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>7088</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>7089</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>7091</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>7092</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>7093</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>7094</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>7096</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>7097</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>7099</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>7100</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>7102</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>7103</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>7105</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>797</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>7106</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>7107</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>7108</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>7109</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>7110</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>7111</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>7112</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>7114</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>7116</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>7117</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>7118</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>7119</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>7120</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>7122</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>7124</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>7126</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>7128</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>7129</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>7130</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>7131</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>7133</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>7134</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>7135</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>7136</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>7137</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>7139</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>7141</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>7142</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>7143</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>7145</v>
+      </c>
+      <c r="C4399" t="s">
+        <v>7146</v>
+      </c>
+      <c r="D4399" t="s">
+        <v>7147</v>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>7148</v>
+      </c>
+      <c r="C4400" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4400" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>7149</v>
+      </c>
+      <c r="C4401" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4401" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>7150</v>
+      </c>
+      <c r="C4402" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4402" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>7151</v>
+      </c>
+      <c r="C4403" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D4403" t="s">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>7153</v>
+      </c>
+      <c r="C4404" t="s">
+        <v>702</v>
+      </c>
+      <c r="D4404" t="s">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>7154</v>
+      </c>
+      <c r="C4405" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4405" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>7155</v>
+      </c>
+      <c r="C4406" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D4406" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>7156</v>
+      </c>
+      <c r="C4407" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4407" t="s">
+        <v>7157</v>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>7158</v>
+      </c>
+      <c r="C4408" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4408" t="s">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>7160</v>
+      </c>
+      <c r="C4409" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4409" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>7161</v>
+      </c>
+      <c r="C4410" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D4410" t="s">
+        <v>7162</v>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>7163</v>
+      </c>
+      <c r="C4411" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4411" t="s">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>7164</v>
+      </c>
+      <c r="C4412" t="s">
+        <v>702</v>
+      </c>
+      <c r="D4412" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>7165</v>
+      </c>
+      <c r="C4413" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D4413" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>7166</v>
+      </c>
+      <c r="C4414" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D4414" t="s">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>7167</v>
+      </c>
+      <c r="C4415" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4415" t="s">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>7168</v>
+      </c>
+      <c r="C4416" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4416" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>7169</v>
+      </c>
+      <c r="C4417" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4417" t="s">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>7170</v>
+      </c>
+      <c r="C4418" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4418" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>7171</v>
+      </c>
+      <c r="C4419" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4419" t="s">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>7172</v>
+      </c>
+      <c r="C4420" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4420" t="s">
+        <v>7173</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>7174</v>
+      </c>
+      <c r="C4421" t="s">
+        <v>6998</v>
+      </c>
+      <c r="D4421" t="s">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>7176</v>
+      </c>
+      <c r="C4422" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4422" t="s">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>7177</v>
+      </c>
+      <c r="C4423" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4423" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>7178</v>
+      </c>
+      <c r="C4424" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4424" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>7179</v>
+      </c>
+      <c r="C4425" t="s">
+        <v>917</v>
+      </c>
+      <c r="D4425" t="s">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>7180</v>
+      </c>
+      <c r="C4426" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4426" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>7181</v>
+      </c>
+      <c r="C4427" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4427" t="s">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>7183</v>
+      </c>
+      <c r="C4428" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D4428" t="s">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>7185</v>
+      </c>
+      <c r="C4429" t="s">
+        <v>794</v>
+      </c>
+      <c r="D4429" t="s">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>7187</v>
+      </c>
+      <c r="C4430" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4430" t="s">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>7189</v>
+      </c>
+      <c r="C4431" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4431" t="s">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>7191</v>
+      </c>
+      <c r="C4432" t="s">
+        <v>7192</v>
+      </c>
+      <c r="D4432" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>7193</v>
+      </c>
+      <c r="C4433" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4433" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>7194</v>
+      </c>
+      <c r="C4434" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D4434" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>7195</v>
+      </c>
+      <c r="C4435" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4435" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4436" t="s">
+        <v>7196</v>
+      </c>
+      <c r="C4436" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4436" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4437" t="s">
+        <v>7197</v>
+      </c>
+      <c r="C4437" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D4437" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4438" t="s">
+        <v>7198</v>
+      </c>
+      <c r="C4438" t="s">
+        <v>919</v>
+      </c>
+      <c r="D4438" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4439" t="s">
+        <v>7199</v>
+      </c>
+      <c r="C4439" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D4439" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4440" t="s">
+        <v>7200</v>
+      </c>
+      <c r="C4440" t="s">
+        <v>5464</v>
+      </c>
+      <c r="D4440" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4441" t="s">
+        <v>7201</v>
+      </c>
+      <c r="C4441" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4441" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4442" t="s">
+        <v>7203</v>
+      </c>
+      <c r="C4442" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4442" t="s">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>7205</v>
+      </c>
+      <c r="C4443" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D4443" t="s">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>7207</v>
+      </c>
+      <c r="C4444" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4444" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4445" t="s">
+        <v>7208</v>
+      </c>
+      <c r="C4445" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4445" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4446" t="s">
+        <v>7209</v>
+      </c>
+      <c r="C4446" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D4446" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4447" t="s">
+        <v>7210</v>
+      </c>
+      <c r="C4447" t="s">
+        <v>868</v>
+      </c>
+      <c r="D4447" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4448" t="s">
+        <v>7211</v>
+      </c>
+      <c r="C4448" t="s">
+        <v>919</v>
+      </c>
+      <c r="D4448" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4449" t="s">
+        <v>7212</v>
+      </c>
+      <c r="C4449" t="s">
+        <v>919</v>
+      </c>
+      <c r="D4449" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4450" t="s">
+        <v>7213</v>
+      </c>
+      <c r="C4450" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4450" t="s">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4451" t="s">
+        <v>7215</v>
+      </c>
+      <c r="C4451" t="s">
+        <v>6399</v>
+      </c>
+      <c r="D4451" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4452" t="s">
+        <v>7216</v>
+      </c>
+      <c r="C4452" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4452" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4453" t="s">
+        <v>7217</v>
+      </c>
+      <c r="C4453" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D4453" t="s">
+        <v>7218</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4454" t="s">
+        <v>7219</v>
+      </c>
+      <c r="C4454" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4454" t="s">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4455" t="s">
+        <v>7221</v>
+      </c>
+      <c r="C4455" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D4455" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4456" t="s">
+        <v>7222</v>
+      </c>
+      <c r="C4456" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4456" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4457" t="s">
+        <v>7223</v>
+      </c>
+      <c r="C4457" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4457" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4458" t="s">
+        <v>7224</v>
+      </c>
+      <c r="C4458" t="s">
+        <v>5457</v>
+      </c>
+      <c r="D4458" t="s">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4459" t="s">
+        <v>7226</v>
+      </c>
+      <c r="C4459" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4459" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>7227</v>
+      </c>
+      <c r="C4460" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D4460" t="s">
+        <v>7228</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4461" t="s">
+        <v>7229</v>
+      </c>
+      <c r="C4461" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4461" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4462" t="s">
+        <v>7230</v>
+      </c>
+      <c r="C4462" t="s">
+        <v>7231</v>
+      </c>
+      <c r="D4462" t="s">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4463" t="s">
+        <v>7233</v>
+      </c>
+      <c r="C4463" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4463" t="s">
+        <v>7234</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4464" t="s">
+        <v>7235</v>
+      </c>
+      <c r="C4464" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4464" t="s">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4465" t="s">
+        <v>7237</v>
+      </c>
+      <c r="C4465" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D4465" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4466" t="s">
+        <v>7238</v>
+      </c>
+      <c r="C4466" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4466" t="s">
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4467" t="s">
+        <v>7240</v>
+      </c>
+      <c r="C4467" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4467" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4468" t="s">
+        <v>7241</v>
+      </c>
+      <c r="C4468" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4468" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4469" t="s">
+        <v>7242</v>
+      </c>
+      <c r="C4469" t="s">
+        <v>884</v>
+      </c>
+      <c r="D4469" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4470" t="s">
+        <v>7243</v>
+      </c>
+      <c r="C4470" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D4470" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4471" t="s">
+        <v>7244</v>
+      </c>
+      <c r="C4471" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4471" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4472" t="s">
+        <v>7245</v>
+      </c>
+      <c r="C4472" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4472" t="s">
+        <v>7246</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4473" t="s">
+        <v>7247</v>
+      </c>
+      <c r="C4473" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4473" t="s">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4474" t="s">
+        <v>7249</v>
+      </c>
+      <c r="C4474" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4474" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4475" t="s">
+        <v>7250</v>
+      </c>
+      <c r="C4475" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D4475" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4476" t="s">
+        <v>7251</v>
+      </c>
+      <c r="C4476" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4476" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4477" t="s">
+        <v>7252</v>
+      </c>
+      <c r="C4477" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4477" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4478" t="s">
+        <v>7253</v>
+      </c>
+      <c r="C4478" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4478" t="s">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4479" t="s">
+        <v>7255</v>
+      </c>
+      <c r="C4479" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4479" t="s">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4480" t="s">
+        <v>7257</v>
+      </c>
+      <c r="C4480" t="s">
+        <v>587</v>
+      </c>
+      <c r="D4480" t="s">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4481" t="s">
+        <v>7259</v>
+      </c>
+      <c r="C4481" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4481" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4482" t="s">
+        <v>7260</v>
+      </c>
+      <c r="C4482" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4482" t="s">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4483" t="s">
+        <v>7262</v>
+      </c>
+      <c r="C4483" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4483" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4484" t="s">
+        <v>7263</v>
+      </c>
+      <c r="C4484" t="s">
+        <v>5457</v>
+      </c>
+      <c r="D4484" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4485" t="s">
+        <v>7264</v>
+      </c>
+      <c r="C4485" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4485" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4486" t="s">
+        <v>7265</v>
+      </c>
+      <c r="C4486" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4486" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4487" t="s">
+        <v>7266</v>
+      </c>
+      <c r="C4487" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D4487" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4488" t="s">
+        <v>7267</v>
+      </c>
+      <c r="C4488" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4488" t="s">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4489" t="s">
+        <v>7268</v>
+      </c>
+      <c r="C4489" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4489" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4490" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C4490" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D4490" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4491" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C4491" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D4491" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4492" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C4492" t="s">
+        <v>803</v>
+      </c>
+      <c r="D4492" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4493" t="s">
+        <v>7272</v>
+      </c>
+      <c r="C4493" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D4493" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4494" t="s">
+        <v>7273</v>
+      </c>
+      <c r="C4494" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4494" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4495" t="s">
+        <v>7274</v>
+      </c>
+      <c r="C4495" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D4495" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4496" t="s">
+        <v>7276</v>
+      </c>
+      <c r="C4496" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4496" t="s">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4497" t="s">
+        <v>7278</v>
+      </c>
+      <c r="C4497" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4497" t="s">
+        <v>7279</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4498" t="s">
+        <v>7280</v>
+      </c>
+      <c r="C4498" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4498" t="s">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4499" t="s">
+        <v>7282</v>
+      </c>
+      <c r="C4499" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4499" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4500" t="s">
+        <v>7283</v>
+      </c>
+      <c r="C4500" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4500" t="s">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4501" t="s">
+        <v>7285</v>
+      </c>
+      <c r="C4501" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4501" t="s">
+        <v>7286</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4502" t="s">
+        <v>7287</v>
+      </c>
+      <c r="C4502" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D4502" t="s">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4503" t="s">
+        <v>7289</v>
+      </c>
+      <c r="C4503" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4503" t="s">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4504" t="s">
+        <v>7291</v>
+      </c>
+      <c r="C4504" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4504" t="s">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4505" t="s">
+        <v>7292</v>
+      </c>
+      <c r="C4505" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4505" t="s">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4506" t="s">
+        <v>7294</v>
+      </c>
+      <c r="C4506" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4506" t="s">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4507" t="s">
+        <v>7295</v>
+      </c>
+      <c r="C4507" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D4507" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4508" t="s">
+        <v>7296</v>
+      </c>
+      <c r="C4508" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4508" t="s">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4509" t="s">
+        <v>7297</v>
+      </c>
+      <c r="C4509" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4509" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4510" t="s">
+        <v>7298</v>
+      </c>
+      <c r="C4510" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4510" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4511" t="s">
+        <v>7299</v>
+      </c>
+      <c r="C4511" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4511" t="s">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4512" t="s">
+        <v>7301</v>
+      </c>
+      <c r="C4512" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4512" t="s">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4513" t="s">
+        <v>7303</v>
+      </c>
+      <c r="C4513" t="s">
+        <v>5346</v>
+      </c>
+      <c r="D4513" t="s">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4514" t="s">
+        <v>7305</v>
+      </c>
+      <c r="C4514" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4514" t="s">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4515" t="s">
+        <v>7307</v>
+      </c>
+      <c r="C4515" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4515" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4516" t="s">
+        <v>7309</v>
+      </c>
+      <c r="C4516" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4516" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4517" t="s">
+        <v>7310</v>
+      </c>
+      <c r="C4517" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4517" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4518" t="s">
+        <v>7311</v>
+      </c>
+      <c r="C4518" t="s">
+        <v>842</v>
+      </c>
+      <c r="D4518" t="s">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4519" t="s">
+        <v>7313</v>
+      </c>
+      <c r="C4519" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4519" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4520" t="s">
+        <v>7314</v>
+      </c>
+      <c r="C4520" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4520" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4521" t="s">
+        <v>7315</v>
+      </c>
+      <c r="C4521" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4521" t="s">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4522" t="s">
+        <v>7317</v>
+      </c>
+      <c r="C4522" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4522" t="s">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4523" t="s">
+        <v>7319</v>
+      </c>
+      <c r="C4523" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4523" t="s">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4524" t="s">
+        <v>7321</v>
+      </c>
+      <c r="C4524" t="s">
+        <v>7322</v>
+      </c>
+      <c r="D4524" t="s">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4525" t="s">
+        <v>7323</v>
+      </c>
+      <c r="C4525" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4525" t="s">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4526" t="s">
+        <v>7324</v>
+      </c>
+      <c r="C4526" t="s">
+        <v>6872</v>
+      </c>
+      <c r="D4526" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4527" t="s">
+        <v>7325</v>
+      </c>
+      <c r="C4527" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D4527" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4528" t="s">
+        <v>7326</v>
+      </c>
+      <c r="C4528" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4528" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4529" t="s">
+        <v>7327</v>
+      </c>
+      <c r="C4529" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D4529" t="s">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4530" t="s">
+        <v>7328</v>
+      </c>
+      <c r="C4530" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4530" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4531" t="s">
+        <v>7329</v>
+      </c>
+      <c r="C4531" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4531" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4532" t="s">
+        <v>7330</v>
+      </c>
+      <c r="C4532" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4532" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4533" t="s">
+        <v>7331</v>
+      </c>
+      <c r="C4533" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4533" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4534" t="s">
+        <v>7332</v>
+      </c>
+      <c r="C4534" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4534" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4535" t="s">
+        <v>7333</v>
+      </c>
+      <c r="C4535" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4535" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4536" t="s">
+        <v>7334</v>
+      </c>
+      <c r="C4536" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4536" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4537" t="s">
+        <v>7335</v>
+      </c>
+      <c r="C4537" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D4537" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4538" t="s">
+        <v>7336</v>
+      </c>
+      <c r="C4538" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4538" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4539" t="s">
+        <v>7337</v>
+      </c>
+      <c r="C4539" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D4539" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4540" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C4540" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4540" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4541" t="s">
+        <v>7339</v>
+      </c>
+      <c r="C4541" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4541" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4542" t="s">
+        <v>7340</v>
+      </c>
+      <c r="C4542" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D4542" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4543" t="s">
+        <v>7341</v>
+      </c>
+      <c r="C4543" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4543" t="s">
+        <v>7342</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4544" t="s">
+        <v>7343</v>
+      </c>
+      <c r="C4544" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4544" t="s">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4545" t="s">
+        <v>7345</v>
+      </c>
+      <c r="C4545" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4545" t="s">
+        <v>6654</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4546" t="s">
+        <v>7346</v>
+      </c>
+      <c r="C4546" t="s">
+        <v>7347</v>
+      </c>
+      <c r="D4546" t="s">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4547" t="s">
+        <v>7349</v>
+      </c>
+      <c r="C4547" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4547" t="s">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4548" t="s">
+        <v>7350</v>
+      </c>
+      <c r="C4548" t="s">
+        <v>6399</v>
+      </c>
+      <c r="D4548" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4549" t="s">
+        <v>7351</v>
+      </c>
+      <c r="C4549" t="s">
+        <v>5482</v>
+      </c>
+      <c r="D4549" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4550" t="s">
+        <v>7352</v>
+      </c>
+      <c r="C4550" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4550" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4551" t="s">
+        <v>7353</v>
+      </c>
+      <c r="C4551" t="s">
+        <v>842</v>
+      </c>
+      <c r="D4551" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4552" t="s">
+        <v>7354</v>
+      </c>
+      <c r="C4552" t="s">
+        <v>5464</v>
+      </c>
+      <c r="D4552" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4553" t="s">
+        <v>7355</v>
+      </c>
+      <c r="C4553" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D4553" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4554" t="s">
+        <v>7356</v>
+      </c>
+      <c r="C4554" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4554" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4555" t="s">
+        <v>7358</v>
+      </c>
+      <c r="C4555" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D4555" t="s">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4556" t="s">
+        <v>7359</v>
+      </c>
+      <c r="C4556" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4556" t="s">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4557" t="s">
+        <v>7361</v>
+      </c>
+      <c r="C4557" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4557" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4558" t="s">
+        <v>7362</v>
+      </c>
+      <c r="C4558" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4558" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4559" t="s">
+        <v>7363</v>
+      </c>
+      <c r="C4559" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D4559" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4560" t="s">
+        <v>7364</v>
+      </c>
+      <c r="C4560" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D4560" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4561" t="s">
+        <v>7365</v>
+      </c>
+      <c r="C4561" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4561" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4562" t="s">
+        <v>7366</v>
+      </c>
+      <c r="C4562" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4562" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4563" t="s">
+        <v>7367</v>
+      </c>
+      <c r="C4563" t="s">
+        <v>842</v>
+      </c>
+      <c r="D4563" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4564" t="s">
+        <v>7368</v>
+      </c>
+      <c r="C4564" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4564" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4565" t="s">
+        <v>7369</v>
+      </c>
+      <c r="C4565" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4565" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4566" t="s">
+        <v>7371</v>
+      </c>
+      <c r="C4566" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4566" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4567" t="s">
+        <v>7372</v>
+      </c>
+      <c r="C4567" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4567" t="s">
+        <v>7373</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4568" t="s">
+        <v>7374</v>
+      </c>
+      <c r="C4568" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4568" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4569" t="s">
+        <v>7375</v>
+      </c>
+      <c r="C4569" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4569" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4570" t="s">
+        <v>7376</v>
+      </c>
+      <c r="C4570" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4570" t="s">
+        <v>6785</v>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4571" t="s">
+        <v>7377</v>
+      </c>
+      <c r="C4571" t="s">
+        <v>884</v>
+      </c>
+      <c r="D4571" t="s">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4572" t="s">
+        <v>7378</v>
+      </c>
+      <c r="C4572" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4572" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4573" t="s">
+        <v>7379</v>
+      </c>
+      <c r="C4573" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D4573" t="s">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4574" t="s">
+        <v>7381</v>
+      </c>
+      <c r="C4574" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4574" t="s">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4575" t="s">
+        <v>7383</v>
+      </c>
+      <c r="C4575" t="s">
+        <v>7384</v>
+      </c>
+      <c r="D4575" t="s">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4576" t="s">
+        <v>7386</v>
+      </c>
+      <c r="C4576" t="s">
+        <v>7387</v>
+      </c>
+      <c r="D4576" t="s">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4577" t="s">
+        <v>7389</v>
+      </c>
+      <c r="C4577" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D4577" t="s">
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4578" t="s">
+        <v>7390</v>
+      </c>
+      <c r="C4578" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4578" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4579" t="s">
+        <v>7391</v>
+      </c>
+      <c r="C4579" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4579" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4580" t="s">
+        <v>7392</v>
+      </c>
+      <c r="C4580" t="s">
+        <v>797</v>
+      </c>
+      <c r="D4580" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4581" t="s">
+        <v>7393</v>
+      </c>
+      <c r="C4581" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4581" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4582" t="s">
+        <v>7394</v>
+      </c>
+      <c r="C4582" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4582" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4583" t="s">
+        <v>7395</v>
+      </c>
+      <c r="C4583" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4583" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4584" t="s">
+        <v>7396</v>
+      </c>
+      <c r="C4584" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4584" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4585" t="s">
+        <v>7397</v>
+      </c>
+      <c r="C4585" t="s">
+        <v>7097</v>
+      </c>
+      <c r="D4585" t="s">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4586" t="s">
+        <v>7399</v>
+      </c>
+      <c r="C4586" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4586" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="4587">
+      <c r="A4587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4587" t="s">
+        <v>7400</v>
+      </c>
+      <c r="C4587" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4587" t="s">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="4588">
+      <c r="A4588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4588" t="s">
+        <v>7402</v>
+      </c>
+      <c r="C4588" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4588" t="s">
+        <v>6274</v>
+      </c>
+    </row>
+    <row r="4589">
+      <c r="A4589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4589" t="s">
+        <v>7403</v>
+      </c>
+      <c r="C4589" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4589" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4590" t="s">
+        <v>7404</v>
+      </c>
+      <c r="C4590" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4590" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="4591">
+      <c r="A4591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4591" t="s">
+        <v>7405</v>
+      </c>
+      <c r="C4591" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D4591" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="4592">
+      <c r="A4592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4592" t="s">
+        <v>7406</v>
+      </c>
+      <c r="C4592" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4592" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="4593">
+      <c r="A4593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4593" t="s">
+        <v>7407</v>
+      </c>
+      <c r="C4593" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4593" t="s">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="4594">
+      <c r="A4594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4594" t="s">
+        <v>7409</v>
+      </c>
+      <c r="C4594" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4594" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="4595">
+      <c r="A4595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4595" t="s">
+        <v>7410</v>
+      </c>
+      <c r="C4595" t="s">
+        <v>7411</v>
+      </c>
+      <c r="D4595" t="s">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="4596">
+      <c r="A4596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4596" t="s">
+        <v>7413</v>
+      </c>
+      <c r="C4596" t="s">
+        <v>7414</v>
+      </c>
+      <c r="D4596" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="4597">
+      <c r="A4597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4597" t="s">
+        <v>7415</v>
+      </c>
+      <c r="C4597" t="s">
+        <v>7192</v>
+      </c>
+      <c r="D4597" t="s">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="4598">
+      <c r="A4598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4598" t="s">
+        <v>7417</v>
+      </c>
+      <c r="C4598" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4598" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="4599">
+      <c r="A4599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4599" t="s">
+        <v>7418</v>
+      </c>
+      <c r="C4599" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4599" t="s">
+        <v>6844</v>
+      </c>
+    </row>
+    <row r="4600">
+      <c r="A4600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4600" t="s">
+        <v>7419</v>
+      </c>
+      <c r="C4600" t="s">
+        <v>4861</v>
+      </c>
+      <c r="D4600" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="4601">
+      <c r="A4601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4601" t="s">
+        <v>7420</v>
+      </c>
+      <c r="C4601" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D4601" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="4602">
+      <c r="A4602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4602" t="s">
+        <v>7421</v>
+      </c>
+      <c r="C4602" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4602" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="4603">
+      <c r="A4603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4603" t="s">
+        <v>7422</v>
+      </c>
+      <c r="C4603" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4603" t="s">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="4604">
+      <c r="A4604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4604" t="s">
+        <v>7423</v>
+      </c>
+      <c r="C4604" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4604" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="4605">
+      <c r="A4605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4605" t="s">
+        <v>7424</v>
+      </c>
+      <c r="C4605" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4605" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="4606">
+      <c r="A4606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4606" t="s">
+        <v>7425</v>
+      </c>
+      <c r="C4606" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4606" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="4607">
+      <c r="A4607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4607" t="s">
+        <v>7426</v>
+      </c>
+      <c r="C4607" t="s">
+        <v>6460</v>
+      </c>
+      <c r="D4607" t="s">
+        <v>7427</v>
+      </c>
+    </row>
+    <row r="4608">
+      <c r="A4608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4608" t="s">
+        <v>7428</v>
+      </c>
+      <c r="C4608" t="s">
+        <v>7146</v>
+      </c>
+      <c r="D4608" t="s">
+        <v>7429</v>
+      </c>
+    </row>
+    <row r="4609">
+      <c r="A4609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4609" t="s">
+        <v>7430</v>
+      </c>
+      <c r="C4609" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4609" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="4610">
+      <c r="A4610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4610" t="s">
+        <v>7431</v>
+      </c>
+      <c r="C4610" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4610" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="4611">
+      <c r="A4611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4611" t="s">
+        <v>7432</v>
+      </c>
+      <c r="C4611" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4611" t="s">
+        <v>3743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
